--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hp-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hp-Itgb2.xlsx
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgb2</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.128414</v>
+        <v>0.1238986666666667</v>
       </c>
       <c r="H2">
-        <v>0.385242</v>
+        <v>0.371696</v>
       </c>
       <c r="I2">
-        <v>0.0205607169378674</v>
+        <v>0.01923905185495286</v>
       </c>
       <c r="J2">
-        <v>0.0205607169378674</v>
+        <v>0.01923905185495286</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1087903333333333</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="N2">
-        <v>0.326371</v>
+        <v>0.343534</v>
       </c>
       <c r="O2">
-        <v>0.001630158713897873</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="P2">
-        <v>0.001630158713897873</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="Q2">
-        <v>0.01397020186466667</v>
+        <v>0.01418780151822222</v>
       </c>
       <c r="R2">
-        <v>0.125731816782</v>
+        <v>0.127690213664</v>
       </c>
       <c r="S2">
-        <v>3.351723188025213E-05</v>
+        <v>3.434874154362576E-05</v>
       </c>
       <c r="T2">
-        <v>3.351723188025214E-05</v>
+        <v>3.434874154362576E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.128414</v>
+        <v>0.1238986666666667</v>
       </c>
       <c r="H3">
-        <v>0.385242</v>
+        <v>0.371696</v>
       </c>
       <c r="I3">
-        <v>0.0205607169378674</v>
+        <v>0.01923905185495286</v>
       </c>
       <c r="J3">
-        <v>0.0205607169378674</v>
+        <v>0.01923905185495286</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.402575</v>
       </c>
       <c r="O3">
-        <v>0.007005585233201815</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="P3">
-        <v>0.007005585233201815</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="Q3">
-        <v>0.06003675535000001</v>
+        <v>0.05792572413333334</v>
       </c>
       <c r="R3">
-        <v>0.5403307981500001</v>
+        <v>0.5213315172</v>
       </c>
       <c r="S3">
-        <v>0.0001440398549639663</v>
+        <v>0.0001402384805304596</v>
       </c>
       <c r="T3">
-        <v>0.0001440398549639663</v>
+        <v>0.0001402384805304596</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,108 +661,108 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.128414</v>
+        <v>0.1238986666666667</v>
       </c>
       <c r="H4">
-        <v>0.385242</v>
+        <v>0.371696</v>
       </c>
       <c r="I4">
-        <v>0.0205607169378674</v>
+        <v>0.01923905185495286</v>
       </c>
       <c r="J4">
-        <v>0.0205607169378674</v>
+        <v>0.01923905185495286</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8144386666666666</v>
+        <v>63.556834</v>
       </c>
       <c r="N4">
-        <v>2.443316</v>
+        <v>190.670502</v>
       </c>
       <c r="O4">
-        <v>0.01220388106849596</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="P4">
-        <v>0.01220388106849596</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="Q4">
-        <v>0.1045853269413333</v>
+        <v>7.874606990154668</v>
       </c>
       <c r="R4">
-        <v>0.941267942472</v>
+        <v>70.871462911392</v>
       </c>
       <c r="S4">
-        <v>0.0002509205441927442</v>
+        <v>0.01906446463287878</v>
       </c>
       <c r="T4">
-        <v>0.0002509205441927443</v>
+        <v>0.01906446463287878</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>5.810518333333333</v>
+      </c>
+      <c r="H5">
+        <v>17.431555</v>
+      </c>
+      <c r="I5">
+        <v>0.9022604239955847</v>
+      </c>
+      <c r="J5">
+        <v>0.9022604239955845</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.128414</v>
-      </c>
-      <c r="H5">
-        <v>0.385242</v>
-      </c>
-      <c r="I5">
-        <v>0.0205607169378674</v>
-      </c>
-      <c r="J5">
-        <v>0.0205607169378674</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>65.34528366666666</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="N5">
-        <v>196.035851</v>
+        <v>0.343534</v>
       </c>
       <c r="O5">
-        <v>0.9791603749844043</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="P5">
-        <v>0.9791603749844044</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="Q5">
-        <v>8.391249256771333</v>
+        <v>0.6653702017077778</v>
       </c>
       <c r="R5">
-        <v>75.521243310942</v>
+        <v>5.98833181537</v>
       </c>
       <c r="S5">
-        <v>0.02013223930683044</v>
+        <v>0.001610864731927428</v>
       </c>
       <c r="T5">
-        <v>0.02013223930683044</v>
+        <v>0.001610864731927428</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>17.431555</v>
       </c>
       <c r="I6">
-        <v>0.930337990514708</v>
+        <v>0.9022604239955847</v>
       </c>
       <c r="J6">
-        <v>0.930337990514708</v>
+        <v>0.9022604239955845</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1087903333333333</v>
+        <v>0.467525</v>
       </c>
       <c r="N6">
-        <v>0.326371</v>
+        <v>1.402575</v>
       </c>
       <c r="O6">
-        <v>0.001630158713897873</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="P6">
-        <v>0.001630158713897873</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="Q6">
-        <v>0.6321282263227778</v>
+        <v>2.716562583791667</v>
       </c>
       <c r="R6">
-        <v>5.689154036905</v>
+        <v>24.449063254125</v>
       </c>
       <c r="S6">
-        <v>0.001516598582107788</v>
+        <v>0.006576812197287932</v>
       </c>
       <c r="T6">
-        <v>0.001516598582107788</v>
+        <v>0.00657681219728793</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>17.431555</v>
       </c>
       <c r="I7">
-        <v>0.930337990514708</v>
+        <v>0.9022604239955847</v>
       </c>
       <c r="J7">
-        <v>0.930337990514708</v>
+        <v>0.9022604239955845</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,60 +865,60 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.467525</v>
+        <v>63.556834</v>
       </c>
       <c r="N7">
-        <v>1.402575</v>
+        <v>190.670502</v>
       </c>
       <c r="O7">
-        <v>0.007005585233201815</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="P7">
-        <v>0.007005585233201815</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="Q7">
-        <v>2.716562583791667</v>
+        <v>369.2981491656233</v>
       </c>
       <c r="R7">
-        <v>24.449063254125</v>
+        <v>3323.68334249061</v>
       </c>
       <c r="S7">
-        <v>0.006517562088236489</v>
+        <v>0.8940727470663694</v>
       </c>
       <c r="T7">
-        <v>0.006517562088236489</v>
+        <v>0.8940727470663691</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>5.810518333333333</v>
+        <v>0.1062546666666667</v>
       </c>
       <c r="H8">
-        <v>17.431555</v>
+        <v>0.318764</v>
       </c>
       <c r="I8">
-        <v>0.930337990514708</v>
+        <v>0.01649928200866351</v>
       </c>
       <c r="J8">
-        <v>0.930337990514708</v>
+        <v>0.01649928200866351</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,60 +927,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.8144386666666666</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="N8">
-        <v>2.443316</v>
+        <v>0.343534</v>
       </c>
       <c r="O8">
-        <v>0.01220388106849596</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="P8">
-        <v>0.01220388106849596</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="Q8">
-        <v>4.732310804042222</v>
+        <v>0.01216736355288889</v>
       </c>
       <c r="R8">
-        <v>42.59079723638</v>
+        <v>0.109506271976</v>
       </c>
       <c r="S8">
-        <v>0.01135373418974502</v>
+        <v>2.945725068177307E-05</v>
       </c>
       <c r="T8">
-        <v>0.01135373418974502</v>
+        <v>2.945725068177305E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>5.810518333333333</v>
+        <v>0.1062546666666667</v>
       </c>
       <c r="H9">
-        <v>17.431555</v>
+        <v>0.318764</v>
       </c>
       <c r="I9">
-        <v>0.930337990514708</v>
+        <v>0.01649928200866351</v>
       </c>
       <c r="J9">
-        <v>0.930337990514708</v>
+        <v>0.01649928200866351</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.34528366666666</v>
+        <v>0.467525</v>
       </c>
       <c r="N9">
-        <v>196.035851</v>
+        <v>1.402575</v>
       </c>
       <c r="O9">
-        <v>0.9791603749844043</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="P9">
-        <v>0.9791603749844044</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="Q9">
-        <v>379.6899687420338</v>
+        <v>0.04967671303333333</v>
       </c>
       <c r="R9">
-        <v>3417.209718678304</v>
+        <v>0.4470904173</v>
       </c>
       <c r="S9">
-        <v>0.9109500956546187</v>
+        <v>0.000120267581593053</v>
       </c>
       <c r="T9">
-        <v>0.9109500956546188</v>
+        <v>0.0001202675815930529</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,75 +1018,75 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.306667</v>
+        <v>0.1062546666666667</v>
       </c>
       <c r="H10">
-        <v>0.9200010000000001</v>
+        <v>0.318764</v>
       </c>
       <c r="I10">
-        <v>0.04910129254742459</v>
+        <v>0.01649928200866351</v>
       </c>
       <c r="J10">
-        <v>0.0491012925474246</v>
+        <v>0.01649928200866351</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1087903333333333</v>
+        <v>63.556834</v>
       </c>
       <c r="N10">
-        <v>0.326371</v>
+        <v>190.670502</v>
       </c>
       <c r="O10">
-        <v>0.001630158713897873</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="P10">
-        <v>0.001630158713897873</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="Q10">
-        <v>0.03336240515233334</v>
+        <v>6.753210211058667</v>
       </c>
       <c r="R10">
-        <v>0.3002616463710001</v>
+        <v>60.778891899528</v>
       </c>
       <c r="S10">
-        <v>8.004289990983288E-05</v>
+        <v>0.01634955717638869</v>
       </c>
       <c r="T10">
-        <v>8.004289990983291E-05</v>
+        <v>0.01634955717638869</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1095,60 +1095,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.306667</v>
+        <v>0.3992853333333333</v>
       </c>
       <c r="H11">
-        <v>0.9200010000000001</v>
+        <v>1.197856</v>
       </c>
       <c r="I11">
-        <v>0.04910129254742459</v>
+        <v>0.06200124214079897</v>
       </c>
       <c r="J11">
-        <v>0.0491012925474246</v>
+        <v>0.06200124214079897</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.467525</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="N11">
-        <v>1.402575</v>
+        <v>0.343534</v>
       </c>
       <c r="O11">
-        <v>0.007005585233201815</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="P11">
-        <v>0.007005585233201815</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="Q11">
-        <v>0.143374489175</v>
+        <v>0.04572269590044445</v>
       </c>
       <c r="R11">
-        <v>1.290370402575</v>
+        <v>0.411504263104</v>
       </c>
       <c r="S11">
-        <v>0.00034398329000136</v>
+        <v>0.0001106948854722176</v>
       </c>
       <c r="T11">
-        <v>0.0003439832900013601</v>
+        <v>0.0001106948854722175</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1157,60 +1157,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.306667</v>
+        <v>0.3992853333333333</v>
       </c>
       <c r="H12">
-        <v>0.9200010000000001</v>
+        <v>1.197856</v>
       </c>
       <c r="I12">
-        <v>0.04910129254742459</v>
+        <v>0.06200124214079897</v>
       </c>
       <c r="J12">
-        <v>0.0491012925474246</v>
+        <v>0.06200124214079897</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8144386666666666</v>
+        <v>0.467525</v>
       </c>
       <c r="N12">
-        <v>2.443316</v>
+        <v>1.402575</v>
       </c>
       <c r="O12">
-        <v>0.01220388106849596</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="P12">
-        <v>0.01220388106849596</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="Q12">
-        <v>0.2497614625906667</v>
+        <v>0.1866758754666667</v>
       </c>
       <c r="R12">
-        <v>2.247853163316</v>
+        <v>1.6800828792</v>
       </c>
       <c r="S12">
-        <v>0.0005992263345581967</v>
+        <v>0.0004519432690539962</v>
       </c>
       <c r="T12">
-        <v>0.0005992263345581969</v>
+        <v>0.0004519432690539962</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.306667</v>
+        <v>0.3992853333333333</v>
       </c>
       <c r="H13">
-        <v>0.9200010000000001</v>
+        <v>1.197856</v>
       </c>
       <c r="I13">
-        <v>0.04910129254742459</v>
+        <v>0.06200124214079897</v>
       </c>
       <c r="J13">
-        <v>0.0491012925474246</v>
+        <v>0.06200124214079897</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.34528366666666</v>
+        <v>63.556834</v>
       </c>
       <c r="N13">
-        <v>196.035851</v>
+        <v>190.670502</v>
       </c>
       <c r="O13">
-        <v>0.9791603749844043</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="P13">
-        <v>0.9791603749844044</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="Q13">
-        <v>20.03924210620567</v>
+        <v>25.37731164930133</v>
       </c>
       <c r="R13">
-        <v>180.353178955851</v>
+        <v>228.395804843712</v>
       </c>
       <c r="S13">
-        <v>0.0480780400229552</v>
+        <v>0.06143860398627277</v>
       </c>
       <c r="T13">
-        <v>0.04807804002295521</v>
+        <v>0.06143860398627275</v>
       </c>
     </row>
   </sheetData>
